--- a/biology/Zoologie/Clania/Clania.xlsx
+++ b/biology/Zoologie/Clania/Clania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clania est un genre de papillons de nuits de la famille des Psychidae[1]
-Les espèces de ce genre vivent en Asie du Sud-Est et en Australie[1]. Comme les autres Psychidae, leurs larves construisent autour d'elles un étui protecteur où elles vivent et se nymphosent. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clania est un genre de papillons de nuits de la famille des Psychidae
+Les espèces de ce genre vivent en Asie du Sud-Est et en Australie. Comme les autres Psychidae, leurs larves construisent autour d'elles un étui protecteur où elles vivent et se nymphosent. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (27 mars 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 mars 2023) :
 Clania antrami Hampson, 1910
 Clania ignobilis (Walker, 1869)
 Clania lewinii (Westwood, 1855)
@@ -549,10 +563,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Clania Walker, 1855[2].
-Clania a pour synonyme[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Clania Walker, 1855.
+Clania a pour synonyme :
 Lansdownia Heylaerts, 1881</t>
         </is>
       </c>
